--- a/DataTesting/TestDataAnalysis.xlsx
+++ b/DataTesting/TestDataAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ps022648/Desktop/Personal/Metaform/git/ForceTestStand/DataTesting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ForceTestStand\DataTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7694EB-3458-8745-99E1-AC2B35B618BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C7B226-ACE1-4A74-9DC5-C88E3FFB056D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" activeTab="1" xr2:uid="{B7A7B346-36D6-9044-8BD3-90A74065026F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7A7B346-36D6-9044-8BD3-90A74065026F}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Readings (2)" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{6A033A25-989D-BF42-8565-271CFB869B26}" name="test_output" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="/Users/ps022648/Desktop/Personal/Metaform/git/ForceTestStand/DataTesting/processed/trial_fts_20200129_074441_f200d200_03.csv" tab="0" comma="1">
+    <textPr sourceFile="C:\git\ForceTestStand\DataTesting\processed\trial_fts_20200129_074441_f200d200_03.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="6">
   <si>
     <t>average</t>
   </si>
@@ -23267,6 +23267,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="16874640"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -24464,7 +24465,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6290733"/>
+    <xdr:ext cx="4127500" cy="2286000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -24798,7 +24799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24812,16 +24813,16 @@
       <selection activeCell="C615" sqref="C613:C615"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -24838,7 +24839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2173</v>
       </c>
@@ -24858,7 +24859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2900</v>
       </c>
@@ -24878,7 +24879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1817</v>
       </c>
@@ -24898,7 +24899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1986</v>
       </c>
@@ -24918,7 +24919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2227</v>
       </c>
@@ -24938,7 +24939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2504</v>
       </c>
@@ -24958,7 +24959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2242</v>
       </c>
@@ -24978,7 +24979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1685</v>
       </c>
@@ -24998,7 +24999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -25018,7 +25019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -25038,7 +25039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2442</v>
       </c>
@@ -25058,7 +25059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1199</v>
       </c>
@@ -25078,7 +25079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1883</v>
       </c>
@@ -25098,7 +25099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -25118,7 +25119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1853</v>
       </c>
@@ -25138,7 +25139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2415</v>
       </c>
@@ -25158,7 +25159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1779</v>
       </c>
@@ -25178,7 +25179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1917</v>
       </c>
@@ -25198,7 +25199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1187</v>
       </c>
@@ -25218,7 +25219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1795</v>
       </c>
@@ -25238,7 +25239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1968</v>
       </c>
@@ -25258,7 +25259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>911</v>
       </c>
@@ -25278,7 +25279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2035</v>
       </c>
@@ -25298,7 +25299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2900</v>
       </c>
@@ -25318,7 +25319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1817</v>
       </c>
@@ -25338,7 +25339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1986</v>
       </c>
@@ -25358,7 +25359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2227</v>
       </c>
@@ -25378,7 +25379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2504</v>
       </c>
@@ -25398,7 +25399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2242</v>
       </c>
@@ -25418,7 +25419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1685</v>
       </c>
@@ -25438,7 +25439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -25458,7 +25459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -25478,7 +25479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2442</v>
       </c>
@@ -25498,7 +25499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1199</v>
       </c>
@@ -25518,7 +25519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1883</v>
       </c>
@@ -25538,7 +25539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2001</v>
       </c>
@@ -25558,7 +25559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1853</v>
       </c>
@@ -25578,7 +25579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2415</v>
       </c>
@@ -25598,7 +25599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1779</v>
       </c>
@@ -25618,7 +25619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1917</v>
       </c>
@@ -25638,7 +25639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1187</v>
       </c>
@@ -25658,7 +25659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1795</v>
       </c>
@@ -25678,7 +25679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1968</v>
       </c>
@@ -25698,7 +25699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>911</v>
       </c>
@@ -25718,7 +25719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2035</v>
       </c>
@@ -25738,7 +25739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2900</v>
       </c>
@@ -25758,7 +25759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1817</v>
       </c>
@@ -25778,7 +25779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1986</v>
       </c>
@@ -25798,7 +25799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2227</v>
       </c>
@@ -25818,7 +25819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2504</v>
       </c>
@@ -25838,7 +25839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2242</v>
       </c>
@@ -25858,7 +25859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1685</v>
       </c>
@@ -25878,7 +25879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2017</v>
       </c>
@@ -25898,7 +25899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-713</v>
       </c>
@@ -25915,7 +25916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-743</v>
       </c>
@@ -25932,7 +25933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-261</v>
       </c>
@@ -25949,7 +25950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-463</v>
       </c>
@@ -25969,7 +25970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-513</v>
       </c>
@@ -25989,7 +25990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-127</v>
       </c>
@@ -26009,7 +26010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>106</v>
       </c>
@@ -26029,7 +26030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-444</v>
       </c>
@@ -26049,7 +26050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1206</v>
       </c>
@@ -26069,7 +26070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-278</v>
       </c>
@@ -26089,7 +26090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>152</v>
       </c>
@@ -26109,7 +26110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1155</v>
       </c>
@@ -26126,7 +26127,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1419</v>
       </c>
@@ -26146,7 +26147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-312</v>
       </c>
@@ -26166,7 +26167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>344</v>
       </c>
@@ -26186,7 +26187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -26206,7 +26207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-589</v>
       </c>
@@ -26223,7 +26224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-434</v>
       </c>
@@ -26243,7 +26244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>653</v>
       </c>
@@ -26263,7 +26264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>960</v>
       </c>
@@ -26283,7 +26284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>958</v>
       </c>
@@ -26303,7 +26304,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -26323,7 +26324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-733</v>
       </c>
@@ -26343,7 +26344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-1209</v>
       </c>
@@ -26360,7 +26361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-696</v>
       </c>
@@ -26380,7 +26381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-372</v>
       </c>
@@ -26400,7 +26401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>163</v>
       </c>
@@ -26420,7 +26421,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-270</v>
       </c>
@@ -26440,7 +26441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-818</v>
       </c>
@@ -26460,7 +26461,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-1833</v>
       </c>
@@ -26477,7 +26478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-1606</v>
       </c>
@@ -26494,7 +26495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-271</v>
       </c>
@@ -26514,7 +26515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-40</v>
       </c>
@@ -26534,7 +26535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-61</v>
       </c>
@@ -26554,7 +26555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>365</v>
       </c>
@@ -26574,7 +26575,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-578</v>
       </c>
@@ -26594,7 +26595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-201</v>
       </c>
@@ -26614,7 +26615,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-41</v>
       </c>
@@ -26634,7 +26635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-555</v>
       </c>
@@ -26654,7 +26655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-600</v>
       </c>
@@ -26674,7 +26675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-697</v>
       </c>
@@ -26694,7 +26695,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>17</v>
       </c>
@@ -26714,7 +26715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-953</v>
       </c>
@@ -26734,7 +26735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-1539</v>
       </c>
@@ -26751,7 +26752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-597</v>
       </c>
@@ -26771,7 +26772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-1086</v>
       </c>
@@ -26791,7 +26792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-665</v>
       </c>
@@ -26811,7 +26812,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-1147</v>
       </c>
@@ -26831,7 +26832,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-1762</v>
       </c>
@@ -26851,7 +26852,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1181</v>
       </c>
@@ -26871,7 +26872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>-1192</v>
       </c>
@@ -26891,7 +26892,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-1615</v>
       </c>
@@ -26911,7 +26912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-1345</v>
       </c>
@@ -26931,7 +26932,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-287</v>
       </c>
@@ -26951,7 +26952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-411</v>
       </c>
@@ -26971,7 +26972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-679</v>
       </c>
@@ -26991,7 +26992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>-1558</v>
       </c>
@@ -27011,7 +27012,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>-1796</v>
       </c>
@@ -27028,7 +27029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>-1150</v>
       </c>
@@ -27048,7 +27049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-755</v>
       </c>
@@ -27068,7 +27069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>-132</v>
       </c>
@@ -27088,7 +27089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>-207</v>
       </c>
@@ -27108,7 +27109,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>-1052</v>
       </c>
@@ -27128,7 +27129,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>-1194</v>
       </c>
@@ -27148,7 +27149,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>-1897</v>
       </c>
@@ -27165,7 +27166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>-1753</v>
       </c>
@@ -27182,7 +27183,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>-615</v>
       </c>
@@ -27202,7 +27203,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>793</v>
       </c>
@@ -27219,7 +27220,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>-838</v>
       </c>
@@ -27239,7 +27240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>-1846</v>
       </c>
@@ -27256,7 +27257,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>-1321</v>
       </c>
@@ -27276,7 +27277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>-1533</v>
       </c>
@@ -27296,7 +27297,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>-2012</v>
       </c>
@@ -27313,7 +27314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>-1904</v>
       </c>
@@ -27330,7 +27331,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>-1370</v>
       </c>
@@ -27350,7 +27351,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>-1845</v>
       </c>
@@ -27367,7 +27368,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>-1640</v>
       </c>
@@ -27387,7 +27388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>-305</v>
       </c>
@@ -27407,7 +27408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>-443</v>
       </c>
@@ -27427,7 +27428,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>-767</v>
       </c>
@@ -27447,7 +27448,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>-825</v>
       </c>
@@ -27467,7 +27468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>-1390</v>
       </c>
@@ -27487,7 +27488,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>-1143</v>
       </c>
@@ -27507,7 +27508,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4314</v>
       </c>
@@ -27524,7 +27525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>20675</v>
       </c>
@@ -27544,7 +27545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>41498</v>
       </c>
@@ -27564,7 +27565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>60924</v>
       </c>
@@ -27584,7 +27585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>91669</v>
       </c>
@@ -27604,7 +27605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>129321</v>
       </c>
@@ -27624,7 +27625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>147192</v>
       </c>
@@ -27644,7 +27645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>147085</v>
       </c>
@@ -27664,7 +27665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>141650</v>
       </c>
@@ -27684,7 +27685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>136030</v>
       </c>
@@ -27704,7 +27705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>132590</v>
       </c>
@@ -27724,7 +27725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>130417</v>
       </c>
@@ -27744,7 +27745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>127481</v>
       </c>
@@ -27764,7 +27765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>123747</v>
       </c>
@@ -27784,7 +27785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>118769</v>
       </c>
@@ -27804,7 +27805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>118438</v>
       </c>
@@ -27824,7 +27825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>119878</v>
       </c>
@@ -27844,7 +27845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>118528</v>
       </c>
@@ -27864,7 +27865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>117525</v>
       </c>
@@ -27884,7 +27885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>117493</v>
       </c>
@@ -27904,7 +27905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>115650</v>
       </c>
@@ -27924,7 +27925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>112213</v>
       </c>
@@ -27944,7 +27945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>109875</v>
       </c>
@@ -27964,7 +27965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>110289</v>
       </c>
@@ -27984,7 +27985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>109412</v>
       </c>
@@ -28004,7 +28005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>107048</v>
       </c>
@@ -28024,7 +28025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>105245</v>
       </c>
@@ -28044,7 +28045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>105703</v>
       </c>
@@ -28064,7 +28065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>106261</v>
       </c>
@@ -28084,7 +28085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>105710</v>
       </c>
@@ -28104,7 +28105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>104160</v>
       </c>
@@ -28124,7 +28125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>102875</v>
       </c>
@@ -28144,7 +28145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>103937</v>
       </c>
@@ -28164,7 +28165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>103855</v>
       </c>
@@ -28184,7 +28185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>104966</v>
       </c>
@@ -28204,7 +28205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>104795</v>
       </c>
@@ -28224,7 +28225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>106055</v>
       </c>
@@ -28244,7 +28245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>107084</v>
       </c>
@@ -28264,7 +28265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>105677</v>
       </c>
@@ -28284,7 +28285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>105217</v>
       </c>
@@ -28304,7 +28305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>105798</v>
       </c>
@@ -28324,7 +28325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>105697</v>
       </c>
@@ -28344,7 +28345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>105831</v>
       </c>
@@ -28364,7 +28365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>105091</v>
       </c>
@@ -28384,7 +28385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>106397</v>
       </c>
@@ -28404,7 +28405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>106065</v>
       </c>
@@ -28424,7 +28425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>107271</v>
       </c>
@@ -28444,7 +28445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>106614</v>
       </c>
@@ -28464,7 +28465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>105160</v>
       </c>
@@ -28484,7 +28485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>106476</v>
       </c>
@@ -28504,7 +28505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>108386</v>
       </c>
@@ -28524,7 +28525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>107714</v>
       </c>
@@ -28544,7 +28545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>106334</v>
       </c>
@@ -28564,7 +28565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>106716</v>
       </c>
@@ -28584,7 +28585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>105510</v>
       </c>
@@ -28604,7 +28605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>105111</v>
       </c>
@@ -28624,7 +28625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>105759</v>
       </c>
@@ -28644,7 +28645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>106505</v>
       </c>
@@ -28664,7 +28665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>106650</v>
       </c>
@@ -28684,7 +28685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>105494</v>
       </c>
@@ -28704,7 +28705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>105364</v>
       </c>
@@ -28724,7 +28725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>105597</v>
       </c>
@@ -28744,7 +28745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>105150</v>
       </c>
@@ -28764,7 +28765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>104435</v>
       </c>
@@ -28784,7 +28785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>105308</v>
       </c>
@@ -28804,7 +28805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>105075</v>
       </c>
@@ -28824,7 +28825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>104198</v>
       </c>
@@ -28844,7 +28845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>104015</v>
       </c>
@@ -28864,7 +28865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>102716</v>
       </c>
@@ -28884,7 +28885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>101628</v>
       </c>
@@ -28904,7 +28905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>102299</v>
       </c>
@@ -28924,7 +28925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>102557</v>
       </c>
@@ -28944,7 +28945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>101822</v>
       </c>
@@ -28964,7 +28965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>101568</v>
       </c>
@@ -28984,7 +28985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>101571</v>
       </c>
@@ -29004,7 +29005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>102386</v>
       </c>
@@ -29024,7 +29025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>102815</v>
       </c>
@@ -29044,7 +29045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>101894</v>
       </c>
@@ -29064,7 +29065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>100052</v>
       </c>
@@ -29084,7 +29085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>101818</v>
       </c>
@@ -29104,7 +29105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>102680</v>
       </c>
@@ -29124,7 +29125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>102884</v>
       </c>
@@ -29144,7 +29145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>103926</v>
       </c>
@@ -29164,7 +29165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>105458</v>
       </c>
@@ -29184,7 +29185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>106092</v>
       </c>
@@ -29204,7 +29205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>104643</v>
       </c>
@@ -29224,7 +29225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>104195</v>
       </c>
@@ -29244,7 +29245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>104634</v>
       </c>
@@ -29264,7 +29265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>105369</v>
       </c>
@@ -29284,7 +29285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>106280</v>
       </c>
@@ -29304,7 +29305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>108624</v>
       </c>
@@ -29321,7 +29322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>110804</v>
       </c>
@@ -29338,7 +29339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>109097</v>
       </c>
@@ -29358,7 +29359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>109205</v>
       </c>
@@ -29378,7 +29379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>110471</v>
       </c>
@@ -29398,7 +29399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>110476</v>
       </c>
@@ -29418,7 +29419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>111016</v>
       </c>
@@ -29438,7 +29439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>111805</v>
       </c>
@@ -29458,7 +29459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>112198</v>
       </c>
@@ -29478,7 +29479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>112247</v>
       </c>
@@ -29498,7 +29499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>112539</v>
       </c>
@@ -29518,7 +29519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>112352</v>
       </c>
@@ -29538,7 +29539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>112480</v>
       </c>
@@ -29558,7 +29559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>112705</v>
       </c>
@@ -29578,7 +29579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>114735</v>
       </c>
@@ -29598,7 +29599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>114449</v>
       </c>
@@ -29618,7 +29619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>114304</v>
       </c>
@@ -29638,7 +29639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>114623</v>
       </c>
@@ -29658,7 +29659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>115784</v>
       </c>
@@ -29678,7 +29679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>116286</v>
       </c>
@@ -29698,7 +29699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>116373</v>
       </c>
@@ -29718,7 +29719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>117250</v>
       </c>
@@ -29738,7 +29739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>117410</v>
       </c>
@@ -29758,7 +29759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>119320</v>
       </c>
@@ -29778,7 +29779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>118676</v>
       </c>
@@ -29798,7 +29799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>118540</v>
       </c>
@@ -29818,7 +29819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>119049</v>
       </c>
@@ -29838,7 +29839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>119491</v>
       </c>
@@ -29858,7 +29859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>119771</v>
       </c>
@@ -29878,7 +29879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>119593</v>
       </c>
@@ -29898,7 +29899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>118020</v>
       </c>
@@ -29918,7 +29919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>118616</v>
       </c>
@@ -29938,7 +29939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>120785</v>
       </c>
@@ -29958,7 +29959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>121170</v>
       </c>
@@ -29978,7 +29979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>122283</v>
       </c>
@@ -29998,7 +29999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>122299</v>
       </c>
@@ -30018,7 +30019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>121809</v>
       </c>
@@ -30038,7 +30039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>122318</v>
       </c>
@@ -30058,7 +30059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>123718</v>
       </c>
@@ -30078,7 +30079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>125854</v>
       </c>
@@ -30095,7 +30096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>127893</v>
       </c>
@@ -30112,7 +30113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>127742</v>
       </c>
@@ -30129,7 +30130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>127559</v>
       </c>
@@ -30146,7 +30147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>127951</v>
       </c>
@@ -30163,7 +30164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>129156</v>
       </c>
@@ -30183,7 +30184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>128544</v>
       </c>
@@ -30203,7 +30204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>126872</v>
       </c>
@@ -30223,7 +30224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>127120</v>
       </c>
@@ -30243,7 +30244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>128711</v>
       </c>
@@ -30263,7 +30264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>129996</v>
       </c>
@@ -30283,7 +30284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>128356</v>
       </c>
@@ -30303,7 +30304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>126810</v>
       </c>
@@ -30323,7 +30324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>127970</v>
       </c>
@@ -30343,7 +30344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>128298</v>
       </c>
@@ -30363,7 +30364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>128611</v>
       </c>
@@ -30383,7 +30384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>127877</v>
       </c>
@@ -30403,7 +30404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>126297</v>
       </c>
@@ -30423,7 +30424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>126179</v>
       </c>
@@ -30443,7 +30444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>126125</v>
       </c>
@@ -30463,7 +30464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>125265</v>
       </c>
@@ -30483,7 +30484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>126351</v>
       </c>
@@ -30503,7 +30504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>127827</v>
       </c>
@@ -30523,7 +30524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>127948</v>
       </c>
@@ -30543,7 +30544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>127320</v>
       </c>
@@ -30563,7 +30564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>127414</v>
       </c>
@@ -30583,7 +30584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>128181</v>
       </c>
@@ -30603,7 +30604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>129046</v>
       </c>
@@ -30623,7 +30624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>128777</v>
       </c>
@@ -30643,7 +30644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>128933</v>
       </c>
@@ -30663,7 +30664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>128855</v>
       </c>
@@ -30683,7 +30684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>129145</v>
       </c>
@@ -30703,7 +30704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>129478</v>
       </c>
@@ -30723,7 +30724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>128626</v>
       </c>
@@ -30743,7 +30744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>128498</v>
       </c>
@@ -30763,7 +30764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>131109</v>
       </c>
@@ -30783,7 +30784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>131804</v>
       </c>
@@ -30803,7 +30804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>130493</v>
       </c>
@@ -30823,7 +30824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>129596</v>
       </c>
@@ -30843,7 +30844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>130102</v>
       </c>
@@ -30863,7 +30864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>131324</v>
       </c>
@@ -30883,7 +30884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>130401</v>
       </c>
@@ -30903,7 +30904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>130065</v>
       </c>
@@ -30923,7 +30924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>129936</v>
       </c>
@@ -30943,7 +30944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>129207</v>
       </c>
@@ -30963,7 +30964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>129841</v>
       </c>
@@ -30983,7 +30984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>129937</v>
       </c>
@@ -31003,7 +31004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>128788</v>
       </c>
@@ -31023,7 +31024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>128757</v>
       </c>
@@ -31043,7 +31044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>128870</v>
       </c>
@@ -31063,7 +31064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>129483</v>
       </c>
@@ -31083,7 +31084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>128829</v>
       </c>
@@ -31103,7 +31104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>127681</v>
       </c>
@@ -31123,7 +31124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>129295</v>
       </c>
@@ -31143,7 +31144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>129824</v>
       </c>
@@ -31163,7 +31164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>127995</v>
       </c>
@@ -31183,7 +31184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>127413</v>
       </c>
@@ -31203,7 +31204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>128295</v>
       </c>
@@ -31223,7 +31224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>129696</v>
       </c>
@@ -31243,7 +31244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>129813</v>
       </c>
@@ -31263,7 +31264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>130440</v>
       </c>
@@ -31283,7 +31284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>129258</v>
       </c>
@@ -31303,7 +31304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>129683</v>
       </c>
@@ -31323,7 +31324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>129586</v>
       </c>
@@ -31343,7 +31344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>128392</v>
       </c>
@@ -31363,7 +31364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>127739</v>
       </c>
@@ -31383,7 +31384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>129098</v>
       </c>
@@ -31403,7 +31404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>131029</v>
       </c>
@@ -31423,7 +31424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>129971</v>
       </c>
@@ -31443,7 +31444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>128714</v>
       </c>
@@ -31463,7 +31464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>128467</v>
       </c>
@@ -31483,7 +31484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>129910</v>
       </c>
@@ -31503,7 +31504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>129527</v>
       </c>
@@ -31523,7 +31524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>129404</v>
       </c>
@@ -31543,7 +31544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>129825</v>
       </c>
@@ -31563,7 +31564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>129811</v>
       </c>
@@ -31583,7 +31584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>129161</v>
       </c>
@@ -31603,7 +31604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>128698</v>
       </c>
@@ -31623,7 +31624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>129349</v>
       </c>
@@ -31643,7 +31644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>129978</v>
       </c>
@@ -31663,7 +31664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>130125</v>
       </c>
@@ -31683,7 +31684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>130036</v>
       </c>
@@ -31703,7 +31704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>129237</v>
       </c>
@@ -31723,7 +31724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>130109</v>
       </c>
@@ -31743,7 +31744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>131234</v>
       </c>
@@ -31760,7 +31761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>130357</v>
       </c>
@@ -31780,7 +31781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>128088</v>
       </c>
@@ -31800,7 +31801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>128291</v>
       </c>
@@ -31820,7 +31821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>128823</v>
       </c>
@@ -31840,7 +31841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>128552</v>
       </c>
@@ -31860,7 +31861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>127655</v>
       </c>
@@ -31877,7 +31878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>126996</v>
       </c>
@@ -31894,7 +31895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>127252</v>
       </c>
@@ -31911,7 +31912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>129537</v>
       </c>
@@ -31931,7 +31932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>128488</v>
       </c>
@@ -31951,7 +31952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>125970</v>
       </c>
@@ -31968,7 +31969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>126655</v>
       </c>
@@ -31985,7 +31986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>127708</v>
       </c>
@@ -32002,7 +32003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>128667</v>
       </c>
@@ -32022,7 +32023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>127473</v>
       </c>
@@ -32039,7 +32040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>126898</v>
       </c>
@@ -32056,7 +32057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>127696</v>
       </c>
@@ -32073,7 +32074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>128564</v>
       </c>
@@ -32093,7 +32094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>127161</v>
       </c>
@@ -32110,7 +32111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>126238</v>
       </c>
@@ -32127,7 +32128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>127029</v>
       </c>
@@ -32144,7 +32145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>127237</v>
       </c>
@@ -32161,7 +32162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>126682</v>
       </c>
@@ -32178,7 +32179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>125798</v>
       </c>
@@ -32195,7 +32196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>126562</v>
       </c>
@@ -32212,7 +32213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>126602</v>
       </c>
@@ -32229,7 +32230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>126662</v>
       </c>
@@ -32246,7 +32247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>125231</v>
       </c>
@@ -32263,7 +32264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>127773</v>
       </c>
@@ -32280,7 +32281,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>129468</v>
       </c>
@@ -32300,7 +32301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>128528</v>
       </c>
@@ -32320,7 +32321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>128154</v>
       </c>
@@ -32340,7 +32341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>126917</v>
       </c>
@@ -32357,7 +32358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>127986</v>
       </c>
@@ -32377,7 +32378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>129041</v>
       </c>
@@ -32397,7 +32398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>128713</v>
       </c>
@@ -32417,7 +32418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>127444</v>
       </c>
@@ -32434,7 +32435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>126999</v>
       </c>
@@ -32451,7 +32452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>126873</v>
       </c>
@@ -32468,7 +32469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>127714</v>
       </c>
@@ -32485,7 +32486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>128219</v>
       </c>
@@ -32505,7 +32506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>127772</v>
       </c>
@@ -32525,7 +32526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>128285</v>
       </c>
@@ -32545,7 +32546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>128551</v>
       </c>
@@ -32565,7 +32566,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>127372</v>
       </c>
@@ -32582,7 +32583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>127086</v>
       </c>
@@ -32599,7 +32600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>126955</v>
       </c>
@@ -32616,7 +32617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>128007</v>
       </c>
@@ -32636,7 +32637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>127889</v>
       </c>
@@ -32656,7 +32657,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>126209</v>
       </c>
@@ -32673,7 +32674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>127140</v>
       </c>
@@ -32693,7 +32694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>128894</v>
       </c>
@@ -32713,7 +32714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>128134</v>
       </c>
@@ -32733,7 +32734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>127176</v>
       </c>
@@ -32753,7 +32754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>128825</v>
       </c>
@@ -32773,7 +32774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>128927</v>
       </c>
@@ -32793,7 +32794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>129348</v>
       </c>
@@ -32813,7 +32814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>129034</v>
       </c>
@@ -32833,7 +32834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>129264</v>
       </c>
@@ -32853,7 +32854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>131116</v>
       </c>
@@ -32870,7 +32871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>130598</v>
       </c>
@@ -32887,7 +32888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>128947</v>
       </c>
@@ -32907,7 +32908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>129248</v>
       </c>
@@ -32927,7 +32928,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>129979</v>
       </c>
@@ -32947,7 +32948,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>129931</v>
       </c>
@@ -32967,7 +32968,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>129731</v>
       </c>
@@ -32987,7 +32988,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>129063</v>
       </c>
@@ -33007,7 +33008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>129030</v>
       </c>
@@ -33027,7 +33028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>130620</v>
       </c>
@@ -33044,7 +33045,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>131685</v>
       </c>
@@ -33061,7 +33062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>130930</v>
       </c>
@@ -33078,7 +33079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>130768</v>
       </c>
@@ -33095,7 +33096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>131030</v>
       </c>
@@ -33112,7 +33113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>130446</v>
       </c>
@@ -33129,7 +33130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>130261</v>
       </c>
@@ -33149,7 +33150,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>129790</v>
       </c>
@@ -33169,7 +33170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>130354</v>
       </c>
@@ -33186,7 +33187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>130894</v>
       </c>
@@ -33203,7 +33204,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>131197</v>
       </c>
@@ -33220,7 +33221,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>128633</v>
       </c>
@@ -33240,7 +33241,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>130082</v>
       </c>
@@ -33260,7 +33261,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>131615</v>
       </c>
@@ -33277,7 +33278,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>131997</v>
       </c>
@@ -33294,7 +33295,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>131815</v>
       </c>
@@ -33311,7 +33312,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>130953</v>
       </c>
@@ -33328,7 +33329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>132015</v>
       </c>
@@ -33345,7 +33346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>133260</v>
       </c>
@@ -33362,7 +33363,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>133639</v>
       </c>
@@ -33382,7 +33383,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>132907</v>
       </c>
@@ -33402,7 +33403,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>133817</v>
       </c>
@@ -33422,7 +33423,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>133493</v>
       </c>
@@ -33442,7 +33443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>132176</v>
       </c>
@@ -33462,7 +33463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>131693</v>
       </c>
@@ -33482,7 +33483,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>132605</v>
       </c>
@@ -33502,7 +33503,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>133664</v>
       </c>
@@ -33522,7 +33523,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>133848</v>
       </c>
@@ -33539,7 +33540,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>131903</v>
       </c>
@@ -33559,7 +33560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>131458</v>
       </c>
@@ -33579,7 +33580,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>131957</v>
       </c>
@@ -33599,7 +33600,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>131898</v>
       </c>
@@ -33619,7 +33620,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>131180</v>
       </c>
@@ -33639,7 +33640,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>131515</v>
       </c>
@@ -33659,7 +33660,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>134239</v>
       </c>
@@ -33679,7 +33680,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>135262</v>
       </c>
@@ -33699,7 +33700,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>134340</v>
       </c>
@@ -33719,7 +33720,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>133926</v>
       </c>
@@ -33736,7 +33737,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>133815</v>
       </c>
@@ -33756,7 +33757,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>134351</v>
       </c>
@@ -33773,7 +33774,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>132679</v>
       </c>
@@ -33793,7 +33794,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>133565</v>
       </c>
@@ -33813,7 +33814,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>133875</v>
       </c>
@@ -33833,7 +33834,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>134851</v>
       </c>
@@ -33850,7 +33851,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>135865</v>
       </c>
@@ -33867,7 +33868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>135148</v>
       </c>
@@ -33884,7 +33885,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>133999</v>
       </c>
@@ -33904,7 +33905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>134131</v>
       </c>
@@ -33924,7 +33925,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>134676</v>
       </c>
@@ -33944,7 +33945,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>133755</v>
       </c>
@@ -33964,7 +33965,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>133904</v>
       </c>
@@ -33984,7 +33985,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>135272</v>
       </c>
@@ -34001,7 +34002,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>135214</v>
       </c>
@@ -34018,7 +34019,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>133787</v>
       </c>
@@ -34038,7 +34039,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>134207</v>
       </c>
@@ -34058,7 +34059,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>133551</v>
       </c>
@@ -34078,7 +34079,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>133042</v>
       </c>
@@ -34098,7 +34099,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>133263</v>
       </c>
@@ -34118,7 +34119,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>133751</v>
       </c>
@@ -34138,7 +34139,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>134715</v>
       </c>
@@ -34158,7 +34159,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>133961</v>
       </c>
@@ -34178,7 +34179,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>131726</v>
       </c>
@@ -34198,7 +34199,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>131431</v>
       </c>
@@ -34218,7 +34219,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>131301</v>
       </c>
@@ -34238,7 +34239,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>132660</v>
       </c>
@@ -34258,7 +34259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>132202</v>
       </c>
@@ -34278,7 +34279,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>131867</v>
       </c>
@@ -34298,7 +34299,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>132649</v>
       </c>
@@ -34318,7 +34319,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>132432</v>
       </c>
@@ -34338,7 +34339,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>131388</v>
       </c>
@@ -34358,7 +34359,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>130413</v>
       </c>
@@ -34378,7 +34379,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>132355</v>
       </c>
@@ -34398,7 +34399,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>134814</v>
       </c>
@@ -34418,7 +34419,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>134711</v>
       </c>
@@ -34438,7 +34439,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>134825</v>
       </c>
@@ -34458,7 +34459,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>133674</v>
       </c>
@@ -34478,7 +34479,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>133528</v>
       </c>
@@ -34498,7 +34499,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>134948</v>
       </c>
@@ -34518,7 +34519,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>133916</v>
       </c>
@@ -34538,7 +34539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>132495</v>
       </c>
@@ -34558,7 +34559,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>132851</v>
       </c>
@@ -34578,7 +34579,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>132961</v>
       </c>
@@ -34598,7 +34599,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>131770</v>
       </c>
@@ -34618,7 +34619,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>131932</v>
       </c>
@@ -34638,7 +34639,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>132544</v>
       </c>
@@ -34658,7 +34659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>132339</v>
       </c>
@@ -34678,7 +34679,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>132337</v>
       </c>
@@ -34698,7 +34699,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>132224</v>
       </c>
@@ -34718,7 +34719,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>131765</v>
       </c>
@@ -34738,7 +34739,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>131374</v>
       </c>
@@ -34758,7 +34759,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>132066</v>
       </c>
@@ -34778,7 +34779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>131747</v>
       </c>
@@ -34798,7 +34799,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>130746</v>
       </c>
@@ -34815,7 +34816,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>131592</v>
       </c>
@@ -34835,7 +34836,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>132369</v>
       </c>
@@ -34855,7 +34856,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>132491</v>
       </c>
@@ -34875,7 +34876,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>130073</v>
       </c>
@@ -34892,7 +34893,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>130313</v>
       </c>
@@ -34909,7 +34910,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>132466</v>
       </c>
@@ -34929,7 +34930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>132897</v>
       </c>
@@ -34949,7 +34950,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>131710</v>
       </c>
@@ -34969,7 +34970,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>132133</v>
       </c>
@@ -34989,7 +34990,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>133111</v>
       </c>
@@ -35009,7 +35010,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>132487</v>
       </c>
@@ -35029,7 +35030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>132073</v>
       </c>
@@ -35049,7 +35050,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>130243</v>
       </c>
@@ -35066,7 +35067,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>130087</v>
       </c>
@@ -35083,7 +35084,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>132240</v>
       </c>
@@ -35103,7 +35104,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>132429</v>
       </c>
@@ -35123,7 +35124,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>131360</v>
       </c>
@@ -35143,7 +35144,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>130568</v>
       </c>
@@ -35160,7 +35161,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>131355</v>
       </c>
@@ -35180,7 +35181,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>131713</v>
       </c>
@@ -35200,7 +35201,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>130331</v>
       </c>
@@ -35217,7 +35218,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>128159</v>
       </c>
@@ -35234,7 +35235,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>129100</v>
       </c>
@@ -35251,7 +35252,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>129420</v>
       </c>
@@ -35268,7 +35269,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>129333</v>
       </c>
@@ -35288,7 +35289,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>128412</v>
       </c>
@@ -35308,7 +35309,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>128092</v>
       </c>
@@ -35328,7 +35329,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>129629</v>
       </c>
@@ -35348,7 +35349,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>130438</v>
       </c>
@@ -35368,7 +35369,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>129164</v>
       </c>
@@ -35388,7 +35389,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>128338</v>
       </c>
@@ -35408,7 +35409,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>129506</v>
       </c>
@@ -35428,7 +35429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>130460</v>
       </c>
@@ -35448,7 +35449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>129802</v>
       </c>
@@ -35468,7 +35469,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>129728</v>
       </c>
@@ -35488,7 +35489,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>130584</v>
       </c>
@@ -35508,7 +35509,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>130851</v>
       </c>
@@ -35528,7 +35529,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>131283</v>
       </c>
@@ -35548,7 +35549,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>129848</v>
       </c>
@@ -35568,7 +35569,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>129990</v>
       </c>
@@ -35588,7 +35589,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>131515</v>
       </c>
@@ -35608,7 +35609,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>131408</v>
       </c>
@@ -35628,7 +35629,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>130173</v>
       </c>
@@ -35648,7 +35649,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>130309</v>
       </c>
@@ -35668,7 +35669,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>131196</v>
       </c>
@@ -35688,7 +35689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>131301</v>
       </c>
@@ -35708,7 +35709,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>129561</v>
       </c>
@@ -35728,7 +35729,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>128711</v>
       </c>
@@ -35745,7 +35746,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>129943</v>
       </c>
@@ -35765,7 +35766,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>130807</v>
       </c>
@@ -35785,7 +35786,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>131155</v>
       </c>
@@ -35805,7 +35806,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>130168</v>
       </c>
@@ -35825,7 +35826,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>129935</v>
       </c>
@@ -35845,7 +35846,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>131842</v>
       </c>
@@ -35865,7 +35866,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>132326</v>
       </c>
@@ -35885,7 +35886,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>131268</v>
       </c>
@@ -35905,7 +35906,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>131183</v>
       </c>
@@ -35925,7 +35926,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>132390</v>
       </c>
@@ -35945,7 +35946,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>132606</v>
       </c>
@@ -35965,7 +35966,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>130915</v>
       </c>
@@ -35985,7 +35986,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>129314</v>
       </c>
@@ -36005,7 +36006,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>131095</v>
       </c>
@@ -36025,7 +36026,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>132278</v>
       </c>
@@ -36045,7 +36046,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>131737</v>
       </c>
@@ -36065,7 +36066,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>129401</v>
       </c>
@@ -36085,7 +36086,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>129607</v>
       </c>
@@ -36105,7 +36106,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>131152</v>
       </c>
@@ -36125,7 +36126,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>130614</v>
       </c>
@@ -36145,7 +36146,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>130701</v>
       </c>
@@ -36165,7 +36166,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>130331</v>
       </c>
@@ -36185,7 +36186,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>131068</v>
       </c>
@@ -36205,7 +36206,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>132377</v>
       </c>
@@ -36225,7 +36226,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>130859</v>
       </c>
@@ -36245,7 +36246,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>128119</v>
       </c>
@@ -36262,7 +36263,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>129653</v>
       </c>
@@ -36282,7 +36283,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>130567</v>
       </c>
@@ -36302,7 +36303,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>129760</v>
       </c>
@@ -36322,7 +36323,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>128939</v>
       </c>
@@ -36342,7 +36343,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>129665</v>
       </c>
@@ -36362,7 +36363,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>130373</v>
       </c>
@@ -36382,7 +36383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>129915</v>
       </c>
@@ -36402,7 +36403,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>129633</v>
       </c>
@@ -36422,7 +36423,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>128934</v>
       </c>
@@ -36442,7 +36443,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>128651</v>
       </c>
@@ -36459,7 +36460,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>128959</v>
       </c>
@@ -36476,7 +36477,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>127826</v>
       </c>
@@ -36493,7 +36494,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>126402</v>
       </c>
@@ -36510,7 +36511,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>127154</v>
       </c>
@@ -36530,7 +36531,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>128170</v>
       </c>
@@ -36550,7 +36551,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>127727</v>
       </c>
@@ -36570,7 +36571,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>127093</v>
       </c>
@@ -36590,7 +36591,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>129449</v>
       </c>
@@ -36610,7 +36611,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>129927</v>
       </c>
@@ -36630,7 +36631,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>129262</v>
       </c>
@@ -36650,7 +36651,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>129731</v>
       </c>
@@ -36670,7 +36671,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>129505</v>
       </c>
@@ -36690,7 +36691,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>130671</v>
       </c>
@@ -36710,7 +36711,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>129445</v>
       </c>
@@ -36730,7 +36731,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>128419</v>
       </c>
@@ -36750,7 +36751,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>128354</v>
       </c>
@@ -36770,7 +36771,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>129312</v>
       </c>
@@ -36790,7 +36791,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>129885</v>
       </c>
@@ -36810,7 +36811,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>129410</v>
       </c>
@@ -36830,7 +36831,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>127908</v>
       </c>
@@ -36850,7 +36851,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>128586</v>
       </c>
@@ -36870,7 +36871,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>130369</v>
       </c>
@@ -36890,7 +36891,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>129512</v>
       </c>
@@ -36910,7 +36911,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>127787</v>
       </c>
@@ -36930,7 +36931,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>127803</v>
       </c>
@@ -36950,7 +36951,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>128661</v>
       </c>
@@ -36970,7 +36971,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>129361</v>
       </c>
@@ -36993,7 +36994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>129517</v>
       </c>
@@ -37016,7 +37017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>128587</v>
       </c>
@@ -37039,7 +37040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>131496</v>
       </c>
@@ -37062,7 +37063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>132304</v>
       </c>
@@ -37082,7 +37083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>131044</v>
       </c>
@@ -37105,7 +37106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>130199</v>
       </c>
@@ -37128,7 +37129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>129474</v>
       </c>
@@ -37151,7 +37152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>131341</v>
       </c>
@@ -37174,7 +37175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>130932</v>
       </c>
@@ -37197,7 +37198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>129995</v>
       </c>
@@ -37220,7 +37221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>130256</v>
       </c>
@@ -37243,7 +37244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>132569</v>
       </c>
@@ -37263,7 +37264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>131574</v>
       </c>
@@ -37286,7 +37287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>131195</v>
       </c>
@@ -37309,7 +37310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>129908</v>
       </c>
@@ -37332,7 +37333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>130539</v>
       </c>
@@ -37355,7 +37356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>131737</v>
       </c>
@@ -37375,7 +37376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>130003</v>
       </c>
@@ -37398,7 +37399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>129436</v>
       </c>
@@ -37421,7 +37422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>130318</v>
       </c>
@@ -37444,7 +37445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>130660</v>
       </c>
@@ -37467,7 +37468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>130026</v>
       </c>
@@ -37490,7 +37491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>128330</v>
       </c>
@@ -37513,7 +37514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>127945</v>
       </c>
@@ -37536,7 +37537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>128577</v>
       </c>
@@ -37559,7 +37560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>129668</v>
       </c>
@@ -37582,7 +37583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>128480</v>
       </c>
@@ -37605,7 +37606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>127785</v>
       </c>
@@ -37628,7 +37629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>129092</v>
       </c>
@@ -37651,7 +37652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>130008</v>
       </c>
@@ -37674,7 +37675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>130318</v>
       </c>
@@ -37697,7 +37698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>129337</v>
       </c>
@@ -37720,7 +37721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>129647</v>
       </c>
@@ -37743,7 +37744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>131554</v>
       </c>
@@ -37763,7 +37764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>131364</v>
       </c>
@@ -37783,7 +37784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>128876</v>
       </c>
@@ -37806,7 +37807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>129461</v>
       </c>
@@ -37829,7 +37830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>132610</v>
       </c>
@@ -37849,7 +37850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>132773</v>
       </c>
@@ -37869,7 +37870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>130142</v>
       </c>
@@ -37892,7 +37893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>130816</v>
       </c>
@@ -37915,7 +37916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>132606</v>
       </c>
@@ -37935,7 +37936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>133955</v>
       </c>
@@ -37955,7 +37956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>132648</v>
       </c>
@@ -37975,7 +37976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>132386</v>
       </c>
@@ -37995,7 +37996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>133249</v>
       </c>
@@ -38015,7 +38016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>134028</v>
       </c>
@@ -38038,7 +38039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>132131</v>
       </c>
@@ -38058,7 +38059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>130752</v>
       </c>
@@ -38081,7 +38082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>131665</v>
       </c>
@@ -38104,7 +38105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>133818</v>
       </c>
@@ -38124,7 +38125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>133381</v>
       </c>
@@ -38144,7 +38145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>131701</v>
       </c>
@@ -38167,7 +38168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>131192</v>
       </c>
@@ -38190,7 +38191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>134099</v>
       </c>
@@ -38210,7 +38211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>135057</v>
       </c>
@@ -38230,7 +38231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>133107</v>
       </c>
@@ -38250,7 +38251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>130986</v>
       </c>
@@ -38273,7 +38274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>131342</v>
       </c>
@@ -38296,7 +38297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>131749</v>
       </c>
@@ -38319,7 +38320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>130670</v>
       </c>
@@ -38342,7 +38343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>130662</v>
       </c>
@@ -38365,7 +38366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>131864</v>
       </c>
@@ -38388,7 +38389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>131930</v>
       </c>
@@ -38411,7 +38412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>130387</v>
       </c>
@@ -38434,7 +38435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>129336</v>
       </c>
@@ -38457,7 +38458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>128679</v>
       </c>
@@ -38480,7 +38481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>131316</v>
       </c>
@@ -38503,7 +38504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>131236</v>
       </c>
@@ -38526,7 +38527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>128783</v>
       </c>
@@ -38549,7 +38550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>129727</v>
       </c>
@@ -38572,7 +38573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>130681</v>
       </c>
@@ -38595,7 +38596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>130627</v>
       </c>
@@ -38618,7 +38619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>128800</v>
       </c>
@@ -38641,7 +38642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>130831</v>
       </c>
@@ -38664,7 +38665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>133718</v>
       </c>
@@ -38684,7 +38685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>137499</v>
       </c>
@@ -38704,7 +38705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>144885</v>
       </c>
@@ -38723,8 +38724,11 @@
       <c r="F701">
         <v>1</v>
       </c>
-    </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G701" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>156376</v>
       </c>
@@ -38743,8 +38747,11 @@
       <c r="F702">
         <v>1</v>
       </c>
-    </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G702" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>167204</v>
       </c>
@@ -38763,8 +38770,11 @@
       <c r="F703">
         <v>1</v>
       </c>
-    </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G703" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>172261</v>
       </c>
@@ -38783,8 +38793,11 @@
       <c r="F704">
         <v>1</v>
       </c>
-    </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G704" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>164277</v>
       </c>
@@ -38803,8 +38816,11 @@
       <c r="F705">
         <v>1</v>
       </c>
-    </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>145479</v>
       </c>
@@ -38823,8 +38839,11 @@
       <c r="F706">
         <v>1</v>
       </c>
-    </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G706" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>133335</v>
       </c>
@@ -38843,8 +38862,11 @@
       <c r="F707">
         <v>2</v>
       </c>
-    </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G707" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>132542</v>
       </c>
@@ -38863,8 +38885,11 @@
       <c r="F708">
         <v>3</v>
       </c>
-    </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G708" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>131185</v>
       </c>
@@ -38883,8 +38908,11 @@
       <c r="F709">
         <v>1</v>
       </c>
-    </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G709" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>127152</v>
       </c>
@@ -38903,8 +38931,11 @@
       <c r="F710">
         <v>1</v>
       </c>
-    </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G710" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>127643</v>
       </c>
@@ -38923,8 +38954,11 @@
       <c r="F711">
         <v>1</v>
       </c>
-    </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G711" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>130291</v>
       </c>
@@ -38943,8 +38977,11 @@
       <c r="F712">
         <v>1</v>
       </c>
-    </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G712" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>131012</v>
       </c>
@@ -38963,8 +39000,11 @@
       <c r="F713">
         <v>1</v>
       </c>
-    </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G713" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>129436</v>
       </c>
@@ -38983,8 +39023,11 @@
       <c r="F714">
         <v>1</v>
       </c>
-    </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G714" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>129394</v>
       </c>
@@ -39003,8 +39046,11 @@
       <c r="F715">
         <v>2</v>
       </c>
-    </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G715" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>134708</v>
       </c>
@@ -39023,8 +39069,11 @@
       <c r="F716">
         <v>3</v>
       </c>
-    </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G716" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>135261</v>
       </c>
@@ -39043,8 +39092,11 @@
       <c r="F717">
         <v>4</v>
       </c>
-    </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G717" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>134921</v>
       </c>
@@ -39063,8 +39115,11 @@
       <c r="F718">
         <v>5</v>
       </c>
-    </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G718" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>133842</v>
       </c>
@@ -39083,8 +39138,11 @@
       <c r="F719">
         <v>6</v>
       </c>
-    </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G719" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>134493</v>
       </c>
@@ -39103,8 +39161,11 @@
       <c r="F720">
         <v>7</v>
       </c>
-    </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G720" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>134762</v>
       </c>
@@ -39123,8 +39184,11 @@
       <c r="F721">
         <v>8</v>
       </c>
-    </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G721" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>136048</v>
       </c>
@@ -39143,8 +39207,11 @@
       <c r="F722">
         <v>9</v>
       </c>
-    </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G722" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>134753</v>
       </c>
@@ -39163,8 +39230,11 @@
       <c r="F723">
         <v>10</v>
       </c>
-    </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G723" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>135259</v>
       </c>
@@ -39183,8 +39253,11 @@
       <c r="F724">
         <v>11</v>
       </c>
-    </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G724" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>136490</v>
       </c>
@@ -39203,8 +39276,11 @@
       <c r="F725">
         <v>12</v>
       </c>
-    </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G725" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>136050</v>
       </c>
@@ -39223,8 +39299,11 @@
       <c r="F726">
         <v>13</v>
       </c>
-    </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G726" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>135259</v>
       </c>
@@ -39243,8 +39322,11 @@
       <c r="F727">
         <v>14</v>
       </c>
-    </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G727" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>135708</v>
       </c>
@@ -39263,8 +39345,11 @@
       <c r="F728">
         <v>15</v>
       </c>
-    </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G728" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>136260</v>
       </c>
@@ -39283,8 +39368,11 @@
       <c r="F729">
         <v>16</v>
       </c>
-    </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G729" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>135544</v>
       </c>
@@ -39303,8 +39391,11 @@
       <c r="F730">
         <v>17</v>
       </c>
-    </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G730" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>134095</v>
       </c>
@@ -39323,8 +39414,11 @@
       <c r="F731">
         <v>18</v>
       </c>
-    </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G731" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>133523</v>
       </c>
@@ -39343,8 +39437,11 @@
       <c r="F732">
         <v>19</v>
       </c>
-    </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G732" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>135099</v>
       </c>
@@ -39363,8 +39460,11 @@
       <c r="F733">
         <v>20</v>
       </c>
-    </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G733" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>136038</v>
       </c>
@@ -39383,8 +39483,11 @@
       <c r="F734">
         <v>21</v>
       </c>
-    </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G734" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>133774</v>
       </c>
@@ -39403,8 +39506,11 @@
       <c r="F735">
         <v>22</v>
       </c>
-    </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G735" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>133416</v>
       </c>
@@ -39423,8 +39529,11 @@
       <c r="F736">
         <v>23</v>
       </c>
-    </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G736" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>134638</v>
       </c>
@@ -39443,8 +39552,11 @@
       <c r="F737">
         <v>24</v>
       </c>
-    </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G737" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>135776</v>
       </c>
@@ -39463,8 +39575,11 @@
       <c r="F738">
         <v>25</v>
       </c>
-    </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G738" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>136112</v>
       </c>
@@ -39483,8 +39598,11 @@
       <c r="F739">
         <v>26</v>
       </c>
-    </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G739" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>133450</v>
       </c>
@@ -39503,8 +39621,11 @@
       <c r="F740">
         <v>27</v>
       </c>
-    </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G740" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>131824</v>
       </c>
@@ -39523,8 +39644,11 @@
       <c r="F741">
         <v>28</v>
       </c>
-    </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G741" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>133744</v>
       </c>
@@ -39543,8 +39667,11 @@
       <c r="F742">
         <v>29</v>
       </c>
-    </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G742" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>134594</v>
       </c>
@@ -39563,8 +39690,11 @@
       <c r="F743">
         <v>30</v>
       </c>
-    </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G743" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>132666</v>
       </c>
@@ -39583,8 +39713,11 @@
       <c r="F744">
         <v>31</v>
       </c>
-    </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G744" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>130890</v>
       </c>
@@ -39603,8 +39736,11 @@
       <c r="F745">
         <v>32</v>
       </c>
-    </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G745" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>131965</v>
       </c>
@@ -39623,8 +39759,11 @@
       <c r="F746">
         <v>33</v>
       </c>
-    </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G746" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>132714</v>
       </c>
@@ -39643,8 +39782,11 @@
       <c r="F747">
         <v>34</v>
       </c>
-    </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G747" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>131445</v>
       </c>
@@ -39663,8 +39805,11 @@
       <c r="F748">
         <v>35</v>
       </c>
-    </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G748" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>130057</v>
       </c>
@@ -39683,8 +39828,11 @@
       <c r="F749">
         <v>36</v>
       </c>
-    </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G749" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>129669</v>
       </c>
@@ -39703,8 +39851,11 @@
       <c r="F750">
         <v>37</v>
       </c>
-    </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G750" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>131912</v>
       </c>
@@ -39723,8 +39874,11 @@
       <c r="F751">
         <v>38</v>
       </c>
-    </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G751" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>131612</v>
       </c>
@@ -39743,8 +39897,11 @@
       <c r="F752">
         <v>39</v>
       </c>
-    </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G752" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>128790</v>
       </c>
@@ -39763,8 +39920,11 @@
       <c r="F753">
         <v>1</v>
       </c>
-    </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G753" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>127711</v>
       </c>
@@ -39783,8 +39943,11 @@
       <c r="F754">
         <v>1</v>
       </c>
-    </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G754" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>127083</v>
       </c>
@@ -39803,8 +39966,11 @@
       <c r="F755">
         <v>1</v>
       </c>
-    </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G755" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>128042</v>
       </c>
@@ -39823,8 +39989,11 @@
       <c r="F756">
         <v>1</v>
       </c>
-    </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G756" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>128200</v>
       </c>
@@ -39843,8 +40012,11 @@
       <c r="F757">
         <v>1</v>
       </c>
-    </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G757" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>126923</v>
       </c>
@@ -39863,8 +40035,11 @@
       <c r="F758">
         <v>2</v>
       </c>
-    </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G758" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>127462</v>
       </c>
@@ -39883,8 +40058,11 @@
       <c r="F759">
         <v>3</v>
       </c>
-    </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G759" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>127229</v>
       </c>
@@ -39903,8 +40081,11 @@
       <c r="F760">
         <v>1</v>
       </c>
-    </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G760" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>126601</v>
       </c>
@@ -39923,8 +40104,11 @@
       <c r="F761">
         <v>1</v>
       </c>
-    </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G761" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>124214</v>
       </c>
@@ -39943,8 +40127,11 @@
       <c r="F762">
         <v>1</v>
       </c>
-    </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G762" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>124026</v>
       </c>
@@ -39963,8 +40150,11 @@
       <c r="F763">
         <v>1</v>
       </c>
-    </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G763" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>126929</v>
       </c>
@@ -39983,8 +40173,11 @@
       <c r="F764">
         <v>1</v>
       </c>
-    </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G764" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>126823</v>
       </c>
@@ -40003,8 +40196,11 @@
       <c r="F765">
         <v>2</v>
       </c>
-    </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G765" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>124063</v>
       </c>
@@ -40023,8 +40219,11 @@
       <c r="F766">
         <v>3</v>
       </c>
-    </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G766" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>123156</v>
       </c>
@@ -40043,8 +40242,11 @@
       <c r="F767">
         <v>4</v>
       </c>
-    </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G767" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>124905</v>
       </c>
@@ -40063,8 +40265,11 @@
       <c r="F768">
         <v>5</v>
       </c>
-    </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G768" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>126075</v>
       </c>
@@ -40083,8 +40288,11 @@
       <c r="F769">
         <v>6</v>
       </c>
-    </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G769" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>125394</v>
       </c>
@@ -40103,8 +40311,11 @@
       <c r="F770">
         <v>7</v>
       </c>
-    </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G770" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>124365</v>
       </c>
@@ -40123,8 +40334,11 @@
       <c r="F771">
         <v>8</v>
       </c>
-    </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G771" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>124656</v>
       </c>
@@ -40143,8 +40357,11 @@
       <c r="F772">
         <v>9</v>
       </c>
-    </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G772" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>127818</v>
       </c>
@@ -40163,8 +40380,11 @@
       <c r="F773">
         <v>10</v>
       </c>
-    </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G773" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>127686</v>
       </c>
@@ -40183,8 +40403,11 @@
       <c r="F774">
         <v>11</v>
       </c>
-    </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G774" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>124808</v>
       </c>
@@ -40203,8 +40426,11 @@
       <c r="F775">
         <v>12</v>
       </c>
-    </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G775" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>124293</v>
       </c>
@@ -40223,8 +40449,11 @@
       <c r="F776">
         <v>1</v>
       </c>
-    </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G776" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>126552</v>
       </c>
@@ -40243,8 +40472,11 @@
       <c r="F777">
         <v>2</v>
       </c>
-    </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G777" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>127916</v>
       </c>
@@ -40263,8 +40495,11 @@
       <c r="F778">
         <v>3</v>
       </c>
-    </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G778" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>128057</v>
       </c>
@@ -40283,8 +40518,11 @@
       <c r="F779">
         <v>4</v>
       </c>
-    </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G779" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>126587</v>
       </c>
@@ -40303,8 +40541,11 @@
       <c r="F780">
         <v>5</v>
       </c>
-    </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G780" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>127598</v>
       </c>
@@ -40323,8 +40564,11 @@
       <c r="F781">
         <v>6</v>
       </c>
-    </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G781" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>128952</v>
       </c>
@@ -40343,8 +40587,11 @@
       <c r="F782">
         <v>7</v>
       </c>
-    </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G782" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>127458</v>
       </c>
@@ -40363,8 +40610,11 @@
       <c r="F783">
         <v>8</v>
       </c>
-    </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G783" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>127023</v>
       </c>
@@ -40383,8 +40633,11 @@
       <c r="F784">
         <v>1</v>
       </c>
-    </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G784" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>127556</v>
       </c>
@@ -40403,8 +40656,11 @@
       <c r="F785">
         <v>2</v>
       </c>
-    </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G785" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>129959</v>
       </c>
@@ -40423,8 +40679,11 @@
       <c r="F786">
         <v>3</v>
       </c>
-    </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G786" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>129820</v>
       </c>
@@ -40443,8 +40702,11 @@
       <c r="F787">
         <v>4</v>
       </c>
-    </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G787" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>129496</v>
       </c>
@@ -40463,8 +40725,11 @@
       <c r="F788">
         <v>5</v>
       </c>
-    </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G788" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>129906</v>
       </c>
@@ -40483,8 +40748,11 @@
       <c r="F789">
         <v>6</v>
       </c>
-    </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G789" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>131314</v>
       </c>
@@ -40503,8 +40771,11 @@
       <c r="F790">
         <v>7</v>
       </c>
-    </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G790" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>131349</v>
       </c>
@@ -40523,8 +40794,11 @@
       <c r="F791">
         <v>8</v>
       </c>
-    </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G791" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>130192</v>
       </c>
@@ -40543,8 +40817,11 @@
       <c r="F792">
         <v>9</v>
       </c>
-    </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G792" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>129267</v>
       </c>
@@ -40563,8 +40840,11 @@
       <c r="F793">
         <v>10</v>
       </c>
-    </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G793" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>129960</v>
       </c>
@@ -40583,8 +40863,11 @@
       <c r="F794">
         <v>11</v>
       </c>
-    </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G794" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>132464</v>
       </c>
@@ -40603,8 +40886,11 @@
       <c r="F795">
         <v>12</v>
       </c>
-    </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G795" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>132355</v>
       </c>
@@ -40623,8 +40909,11 @@
       <c r="F796">
         <v>13</v>
       </c>
-    </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G796" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>133298</v>
       </c>
@@ -40643,8 +40932,11 @@
       <c r="F797">
         <v>14</v>
       </c>
-    </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G797" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>133913</v>
       </c>
@@ -40663,8 +40955,11 @@
       <c r="F798">
         <v>15</v>
       </c>
-    </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G798" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>133986</v>
       </c>
@@ -40683,8 +40978,11 @@
       <c r="F799">
         <v>16</v>
       </c>
-    </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G799" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>134960</v>
       </c>
@@ -40703,8 +41001,11 @@
       <c r="F800">
         <v>17</v>
       </c>
-    </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G800" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>137052</v>
       </c>
@@ -40723,8 +41024,11 @@
       <c r="F801">
         <v>18</v>
       </c>
-    </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G801" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>137440</v>
       </c>
@@ -40743,8 +41047,11 @@
       <c r="F802">
         <v>19</v>
       </c>
-    </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G802" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>136038</v>
       </c>
@@ -40763,8 +41070,11 @@
       <c r="F803">
         <v>1</v>
       </c>
-    </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G803" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>132192</v>
       </c>
@@ -40783,8 +41093,11 @@
       <c r="F804">
         <v>2</v>
       </c>
-    </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G804" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>129507</v>
       </c>
@@ -40803,8 +41116,11 @@
       <c r="F805">
         <v>3</v>
       </c>
-    </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G805" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>130711</v>
       </c>
@@ -40823,8 +41139,11 @@
       <c r="F806">
         <v>4</v>
       </c>
-    </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G806" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>131545</v>
       </c>
@@ -40843,8 +41162,11 @@
       <c r="F807">
         <v>5</v>
       </c>
-    </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G807" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>128371</v>
       </c>
@@ -40863,8 +41185,11 @@
       <c r="F808">
         <v>6</v>
       </c>
-    </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G808" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>103998</v>
       </c>
@@ -40883,8 +41208,11 @@
       <c r="F809">
         <v>1</v>
       </c>
-    </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G809" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>71259</v>
       </c>
@@ -40903,8 +41231,11 @@
       <c r="F810">
         <v>1</v>
       </c>
-    </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G810" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>51271</v>
       </c>
@@ -40923,8 +41254,11 @@
       <c r="F811">
         <v>1</v>
       </c>
-    </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G811" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>39743</v>
       </c>
@@ -40943,8 +41277,11 @@
       <c r="F812">
         <v>1</v>
       </c>
-    </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G812" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>32003</v>
       </c>
@@ -40963,8 +41300,11 @@
       <c r="F813">
         <v>1</v>
       </c>
-    </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G813" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>26948</v>
       </c>
@@ -40983,8 +41323,11 @@
       <c r="F814">
         <v>1</v>
       </c>
-    </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G814" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>23773</v>
       </c>
@@ -41003,8 +41346,11 @@
       <c r="F815">
         <v>1</v>
       </c>
-    </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G815" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>19361</v>
       </c>
@@ -41023,8 +41369,11 @@
       <c r="F816">
         <v>1</v>
       </c>
-    </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G816" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>16000</v>
       </c>
@@ -41043,8 +41392,11 @@
       <c r="F817">
         <v>1</v>
       </c>
-    </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G817" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>13563</v>
       </c>
@@ -41063,8 +41415,11 @@
       <c r="F818">
         <v>1</v>
       </c>
-    </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G818" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>11348</v>
       </c>
@@ -41083,8 +41438,11 @@
       <c r="F819">
         <v>1</v>
       </c>
-    </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G819" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>10231</v>
       </c>
@@ -41103,8 +41461,11 @@
       <c r="F820">
         <v>1</v>
       </c>
-    </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G820" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>9244</v>
       </c>
@@ -41123,8 +41484,11 @@
       <c r="F821">
         <v>1</v>
       </c>
-    </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G821" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>7060</v>
       </c>
@@ -41143,8 +41507,11 @@
       <c r="F822">
         <v>1</v>
       </c>
-    </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G822" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>5674</v>
       </c>
@@ -41163,8 +41530,11 @@
       <c r="F823">
         <v>1</v>
       </c>
-    </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G823" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>4776</v>
       </c>
@@ -41183,8 +41553,11 @@
       <c r="F824">
         <v>1</v>
       </c>
-    </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G824" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>4155</v>
       </c>
@@ -41203,8 +41576,11 @@
       <c r="F825">
         <v>1</v>
       </c>
-    </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G825" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>3186</v>
       </c>
@@ -41223,8 +41599,11 @@
       <c r="F826">
         <v>1</v>
       </c>
-    </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G826" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>1519</v>
       </c>
@@ -41243,8 +41622,11 @@
       <c r="F827">
         <v>1</v>
       </c>
-    </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G827" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>1205</v>
       </c>
@@ -41263,8 +41645,11 @@
       <c r="F828">
         <v>1</v>
       </c>
-    </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G828" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>1363</v>
       </c>
@@ -41283,8 +41668,11 @@
       <c r="F829">
         <v>1</v>
       </c>
-    </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G829" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>1239</v>
       </c>
@@ -41303,8 +41691,11 @@
       <c r="F830">
         <v>1</v>
       </c>
-    </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G830" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>214</v>
       </c>
@@ -41323,8 +41714,11 @@
       <c r="F831">
         <v>1</v>
       </c>
-    </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G831" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>417</v>
       </c>
@@ -41343,8 +41737,11 @@
       <c r="F832">
         <v>1</v>
       </c>
-    </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G832" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>429</v>
       </c>
@@ -41363,8 +41760,11 @@
       <c r="F833">
         <v>1</v>
       </c>
-    </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G833" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>-1084</v>
       </c>
@@ -41383,8 +41783,11 @@
       <c r="F834">
         <v>1</v>
       </c>
-    </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G834" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>-2441</v>
       </c>
@@ -41403,8 +41806,11 @@
       <c r="F835">
         <v>1</v>
       </c>
-    </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G835" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>-1876</v>
       </c>
@@ -41423,8 +41829,11 @@
       <c r="F836">
         <v>1</v>
       </c>
-    </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G836" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>-1642</v>
       </c>
@@ -41443,8 +41852,11 @@
       <c r="F837">
         <v>1</v>
       </c>
-    </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G837" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>-1770</v>
       </c>
@@ -41463,8 +41875,11 @@
       <c r="F838">
         <v>1</v>
       </c>
-    </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G838" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>-2527</v>
       </c>
@@ -41483,8 +41898,11 @@
       <c r="F839">
         <v>1</v>
       </c>
-    </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G839" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>-1754</v>
       </c>
@@ -41503,8 +41921,11 @@
       <c r="F840">
         <v>1</v>
       </c>
-    </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G840" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>-918</v>
       </c>
@@ -41523,8 +41944,11 @@
       <c r="F841">
         <v>1</v>
       </c>
-    </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G841" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>-1158</v>
       </c>
@@ -41543,8 +41967,11 @@
       <c r="F842">
         <v>2</v>
       </c>
-    </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G842" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>-2614</v>
       </c>
@@ -41563,8 +41990,11 @@
       <c r="F843">
         <v>1</v>
       </c>
-    </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G843" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>-2489</v>
       </c>
@@ -41583,8 +42013,11 @@
       <c r="F844">
         <v>1</v>
       </c>
-    </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G844" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>-2102</v>
       </c>
@@ -41603,8 +42036,11 @@
       <c r="F845">
         <v>1</v>
       </c>
-    </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G845" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>-1797</v>
       </c>
@@ -41623,8 +42059,11 @@
       <c r="F846">
         <v>1</v>
       </c>
-    </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G846" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>-915</v>
       </c>
@@ -41643,8 +42082,11 @@
       <c r="F847">
         <v>1</v>
       </c>
-    </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G847" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>-2141</v>
       </c>
@@ -41663,8 +42105,11 @@
       <c r="F848">
         <v>1</v>
       </c>
-    </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G848" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>-3132</v>
       </c>
@@ -41683,8 +42128,11 @@
       <c r="F849">
         <v>1</v>
       </c>
-    </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G849" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>-2754</v>
       </c>
@@ -41703,8 +42151,11 @@
       <c r="F850">
         <v>1</v>
       </c>
-    </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G850" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>-2895</v>
       </c>
@@ -41723,8 +42174,11 @@
       <c r="F851">
         <v>1</v>
       </c>
-    </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G851" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>-3199</v>
       </c>
@@ -41743,8 +42197,11 @@
       <c r="F852">
         <v>1</v>
       </c>
-    </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G852" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>-3427</v>
       </c>
@@ -41763,8 +42220,11 @@
       <c r="F853">
         <v>1</v>
       </c>
-    </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G853" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>-2993</v>
       </c>
@@ -41783,8 +42243,11 @@
       <c r="F854">
         <v>1</v>
       </c>
-    </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G854" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>-2918</v>
       </c>
@@ -41803,8 +42266,11 @@
       <c r="F855">
         <v>1</v>
       </c>
-    </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G855" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>-2186</v>
       </c>
@@ -41823,8 +42289,11 @@
       <c r="F856">
         <v>1</v>
       </c>
-    </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G856" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>-2763</v>
       </c>
@@ -41843,8 +42312,11 @@
       <c r="F857">
         <v>1</v>
       </c>
-    </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G857" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>-2577</v>
       </c>
@@ -41863,8 +42335,11 @@
       <c r="F858">
         <v>1</v>
       </c>
-    </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G858" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>-2004</v>
       </c>
@@ -41883,8 +42358,11 @@
       <c r="F859">
         <v>1</v>
       </c>
-    </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G859" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>-1710</v>
       </c>
@@ -41903,8 +42381,11 @@
       <c r="F860">
         <v>1</v>
       </c>
-    </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G860" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>-2138</v>
       </c>
@@ -41923,8 +42404,11 @@
       <c r="F861">
         <v>1</v>
       </c>
-    </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G861" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>-2955</v>
       </c>
@@ -41943,8 +42427,11 @@
       <c r="F862">
         <v>1</v>
       </c>
-    </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G862" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>-2957</v>
       </c>
@@ -41963,8 +42450,11 @@
       <c r="F863">
         <v>1</v>
       </c>
-    </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G863" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>-2624</v>
       </c>
@@ -41983,8 +42473,11 @@
       <c r="F864">
         <v>1</v>
       </c>
-    </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G864" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>-1742</v>
       </c>
@@ -42003,8 +42496,11 @@
       <c r="F865">
         <v>1</v>
       </c>
-    </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G865" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>-2431</v>
       </c>
@@ -42023,8 +42519,11 @@
       <c r="F866">
         <v>1</v>
       </c>
-    </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G866" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>-1691</v>
       </c>
@@ -42043,8 +42542,11 @@
       <c r="F867">
         <v>1</v>
       </c>
-    </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G867" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>-1527</v>
       </c>
@@ -42063,8 +42565,11 @@
       <c r="F868">
         <v>1</v>
       </c>
-    </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G868" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>-2247</v>
       </c>
@@ -42083,8 +42588,11 @@
       <c r="F869">
         <v>1</v>
       </c>
-    </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G869" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>-2749</v>
       </c>
@@ -42103,8 +42611,11 @@
       <c r="F870">
         <v>1</v>
       </c>
-    </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G870" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>-3338</v>
       </c>
@@ -42123,8 +42634,11 @@
       <c r="F871">
         <v>1</v>
       </c>
-    </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G871" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>-2906</v>
       </c>
@@ -42143,8 +42657,11 @@
       <c r="F872">
         <v>1</v>
       </c>
-    </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G872" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>-3197</v>
       </c>
@@ -42163,8 +42680,11 @@
       <c r="F873">
         <v>1</v>
       </c>
-    </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G873" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>-2838</v>
       </c>
@@ -42183,8 +42703,11 @@
       <c r="F874">
         <v>1</v>
       </c>
-    </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G874" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>-1560</v>
       </c>
@@ -42203,8 +42726,11 @@
       <c r="F875">
         <v>1</v>
       </c>
-    </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G875" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>-2135</v>
       </c>
@@ -42223,8 +42749,11 @@
       <c r="F876">
         <v>1</v>
       </c>
-    </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G876" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>-2637</v>
       </c>
@@ -42243,8 +42772,11 @@
       <c r="F877">
         <v>2</v>
       </c>
-    </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G877" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>-3650</v>
       </c>
@@ -42263,8 +42795,11 @@
       <c r="F878">
         <v>1</v>
       </c>
-    </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G878" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>-3341</v>
       </c>
@@ -42283,8 +42818,11 @@
       <c r="F879">
         <v>2</v>
       </c>
-    </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G879" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>-2461</v>
       </c>
@@ -42303,8 +42841,11 @@
       <c r="F880">
         <v>1</v>
       </c>
-    </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G880" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>-2937</v>
       </c>
@@ -42323,8 +42864,11 @@
       <c r="F881">
         <v>2</v>
       </c>
-    </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G881" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>-3602</v>
       </c>
@@ -42343,8 +42887,11 @@
       <c r="F882">
         <v>1</v>
       </c>
-    </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G882" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>-3432</v>
       </c>
@@ -42363,8 +42910,11 @@
       <c r="F883">
         <v>2</v>
       </c>
-    </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G883" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>-3260</v>
       </c>
@@ -42383,8 +42933,11 @@
       <c r="F884">
         <v>3</v>
       </c>
-    </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G884" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>-2826</v>
       </c>
@@ -42403,8 +42956,11 @@
       <c r="F885">
         <v>1</v>
       </c>
-    </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G885" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>-2701</v>
       </c>
@@ -42423,8 +42979,11 @@
       <c r="F886">
         <v>2</v>
       </c>
-    </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G886" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>-2982</v>
       </c>
@@ -42443,8 +43002,11 @@
       <c r="F887">
         <v>3</v>
       </c>
-    </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G887" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>-3461</v>
       </c>
@@ -42463,8 +43025,11 @@
       <c r="F888">
         <v>4</v>
       </c>
-    </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G888" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>-2726</v>
       </c>
@@ -42483,8 +43048,11 @@
       <c r="F889">
         <v>1</v>
       </c>
-    </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G889" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>-3248</v>
       </c>
@@ -42503,8 +43071,11 @@
       <c r="F890">
         <v>2</v>
       </c>
-    </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G890" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>-4215</v>
       </c>
@@ -42520,8 +43091,11 @@
       <c r="F891">
         <v>3</v>
       </c>
-    </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G891" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>-3036</v>
       </c>
@@ -42540,8 +43114,11 @@
       <c r="F892">
         <v>4</v>
       </c>
-    </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G892" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>-2836</v>
       </c>
@@ -42560,8 +43137,11 @@
       <c r="F893">
         <v>5</v>
       </c>
-    </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G893" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>-3296</v>
       </c>
@@ -42580,8 +43160,11 @@
       <c r="F894">
         <v>6</v>
       </c>
-    </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G894" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>-3951</v>
       </c>
@@ -42597,8 +43180,11 @@
       <c r="F895">
         <v>7</v>
       </c>
-    </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G895" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>-3242</v>
       </c>
@@ -42617,8 +43203,11 @@
       <c r="F896">
         <v>8</v>
       </c>
-    </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G896" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>-3328</v>
       </c>
@@ -42637,8 +43226,11 @@
       <c r="F897">
         <v>9</v>
       </c>
-    </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G897" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>-3157</v>
       </c>
@@ -42657,8 +43249,11 @@
       <c r="F898">
         <v>10</v>
       </c>
-    </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G898" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>-2691</v>
       </c>
@@ -42677,8 +43272,11 @@
       <c r="F899">
         <v>11</v>
       </c>
-    </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G899" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>-2046</v>
       </c>
@@ -42697,8 +43295,11 @@
       <c r="F900">
         <v>12</v>
       </c>
-    </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G900" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>-2855</v>
       </c>
@@ -42717,8 +43318,11 @@
       <c r="F901">
         <v>13</v>
       </c>
-    </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G901" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>-3621</v>
       </c>
@@ -42737,8 +43341,11 @@
       <c r="F902">
         <v>14</v>
       </c>
-    </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G902" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>-2587</v>
       </c>
@@ -42757,8 +43364,11 @@
       <c r="F903">
         <v>15</v>
       </c>
-    </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G903" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>-2257</v>
       </c>
@@ -42777,8 +43387,11 @@
       <c r="F904">
         <v>16</v>
       </c>
-    </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G904" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>-1860</v>
       </c>
@@ -42797,8 +43410,11 @@
       <c r="F905">
         <v>17</v>
       </c>
-    </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G905" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>-3256</v>
       </c>
@@ -42817,8 +43433,11 @@
       <c r="F906">
         <v>18</v>
       </c>
-    </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G906" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>-3772</v>
       </c>
@@ -42834,8 +43453,11 @@
       <c r="F907">
         <v>19</v>
       </c>
-    </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G907" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>-3158</v>
       </c>
@@ -42854,8 +43476,11 @@
       <c r="F908">
         <v>20</v>
       </c>
-    </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G908" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>-2905</v>
       </c>
@@ -42874,8 +43499,11 @@
       <c r="F909">
         <v>21</v>
       </c>
-    </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G909" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>-3805</v>
       </c>
@@ -42891,8 +43519,11 @@
       <c r="F910">
         <v>22</v>
       </c>
-    </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G910" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>-3327</v>
       </c>
@@ -42911,8 +43542,11 @@
       <c r="F911">
         <v>23</v>
       </c>
-    </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G911" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>-3047</v>
       </c>
@@ -42931,8 +43565,11 @@
       <c r="F912">
         <v>24</v>
       </c>
-    </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G912" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>-3637</v>
       </c>
@@ -42951,8 +43588,11 @@
       <c r="F913">
         <v>25</v>
       </c>
-    </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G913" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>-3470</v>
       </c>
@@ -42971,8 +43611,11 @@
       <c r="F914">
         <v>26</v>
       </c>
-    </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G914" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>-3528</v>
       </c>
@@ -42991,8 +43634,11 @@
       <c r="F915">
         <v>27</v>
       </c>
-    </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G915" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>-2688</v>
       </c>
@@ -43011,8 +43657,11 @@
       <c r="F916">
         <v>28</v>
       </c>
-    </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G916" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>-2606</v>
       </c>
@@ -43031,8 +43680,11 @@
       <c r="F917">
         <v>29</v>
       </c>
-    </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G917" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>-2790</v>
       </c>
@@ -43051,8 +43703,11 @@
       <c r="F918">
         <v>30</v>
       </c>
-    </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G918" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>-3082</v>
       </c>
@@ -43071,8 +43726,11 @@
       <c r="F919">
         <v>31</v>
       </c>
-    </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G919" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>-3446</v>
       </c>
@@ -43091,8 +43749,11 @@
       <c r="F920">
         <v>32</v>
       </c>
-    </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G920" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>-2610</v>
       </c>
@@ -43111,8 +43772,11 @@
       <c r="F921">
         <v>33</v>
       </c>
-    </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G921" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>-2220</v>
       </c>
@@ -43131,8 +43795,11 @@
       <c r="F922">
         <v>34</v>
       </c>
-    </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G922" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>-2562</v>
       </c>
@@ -43151,8 +43818,11 @@
       <c r="F923">
         <v>35</v>
       </c>
-    </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G923" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>-2416</v>
       </c>
@@ -43171,8 +43841,11 @@
       <c r="F924">
         <v>36</v>
       </c>
-    </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G924" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>-2595</v>
       </c>
@@ -43191,8 +43864,11 @@
       <c r="F925">
         <v>37</v>
       </c>
-    </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G925" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>-3086</v>
       </c>
@@ -43211,8 +43887,11 @@
       <c r="F926">
         <v>38</v>
       </c>
-    </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G926" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>-3515</v>
       </c>
@@ -43231,8 +43910,11 @@
       <c r="F927">
         <v>39</v>
       </c>
-    </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G927" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>-3659</v>
       </c>
@@ -43251,8 +43933,11 @@
       <c r="F928">
         <v>40</v>
       </c>
-    </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G928" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>-3233</v>
       </c>
@@ -43271,8 +43956,11 @@
       <c r="F929">
         <v>41</v>
       </c>
-    </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G929" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>-3380</v>
       </c>
@@ -43291,8 +43979,11 @@
       <c r="F930">
         <v>42</v>
       </c>
-    </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G930" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>-3768</v>
       </c>
@@ -43311,8 +44002,11 @@
       <c r="F931">
         <v>43</v>
       </c>
-    </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G931" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>-3678</v>
       </c>
@@ -43331,8 +44025,11 @@
       <c r="F932">
         <v>44</v>
       </c>
-    </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G932" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>-3244</v>
       </c>
@@ -43351,8 +44048,11 @@
       <c r="F933">
         <v>45</v>
       </c>
-    </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G933" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>-3441</v>
       </c>
@@ -43371,8 +44071,11 @@
       <c r="F934">
         <v>46</v>
       </c>
-    </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G934" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>-3612</v>
       </c>
@@ -43391,8 +44094,11 @@
       <c r="F935">
         <v>47</v>
       </c>
-    </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G935" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>-3625</v>
       </c>
@@ -43411,8 +44117,11 @@
       <c r="F936">
         <v>48</v>
       </c>
-    </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G936" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>-4471</v>
       </c>
@@ -43428,8 +44137,11 @@
       <c r="F937">
         <v>49</v>
       </c>
-    </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G937" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>-3086</v>
       </c>
@@ -43448,8 +44160,11 @@
       <c r="F938">
         <v>50</v>
       </c>
-    </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G938" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>-1943</v>
       </c>
@@ -43465,8 +44180,11 @@
       <c r="F939">
         <v>51</v>
       </c>
-    </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G939" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>-2382</v>
       </c>
@@ -43485,8 +44203,11 @@
       <c r="F940">
         <v>52</v>
       </c>
-    </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G940" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>-2418</v>
       </c>
@@ -43505,8 +44226,11 @@
       <c r="F941">
         <v>53</v>
       </c>
-    </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G941" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>-1507</v>
       </c>
@@ -43522,8 +44246,11 @@
       <c r="F942">
         <v>54</v>
       </c>
-    </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G942" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>-1276</v>
       </c>
@@ -43539,8 +44266,11 @@
       <c r="F943">
         <v>55</v>
       </c>
-    </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G943" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>-1986</v>
       </c>
@@ -43556,8 +44286,11 @@
       <c r="F944">
         <v>56</v>
       </c>
-    </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G944" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>-3224</v>
       </c>
@@ -43575,6 +44308,9 @@
       </c>
       <c r="F945">
         <v>57</v>
+      </c>
+      <c r="G945" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
